--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F45CD-8FF3-4DF8-9CAE-E9313CDC591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5290C0-5180-4F4A-A328-275411C1689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>m19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,14 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,22 +670,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -696,31 +705,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9026</v>
+        <v>9033</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -734,7 +743,7 @@
         <v>9028</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -746,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -766,31 +775,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -801,31 +810,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -836,31 +845,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9008</v>
+        <v>9027</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -871,22 +880,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -906,31 +915,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9017</v>
+        <v>9008</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -941,31 +950,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -976,22 +985,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1011,22 +1020,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9001</v>
+        <v>9009</v>
       </c>
       <c r="C12">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1038,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1046,22 +1055,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>9023</v>
       </c>
       <c r="C13">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1073,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1081,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>9001</v>
       </c>
       <c r="C14">
         <v>30000</v>
@@ -1090,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1116,22 +1125,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1143,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,22 +1160,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1178,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1186,34 +1195,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9001</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1221,34 +1230,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>9001</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -1265,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1291,25 +1300,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>37</v>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,25 +1335,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>37</v>
@@ -1353,22 +1362,87 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>400</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1200</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K21" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
-      <sortCondition descending="1" ref="A1:A21"/>
+  <autoFilter ref="A1:K23" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+      <sortCondition descending="1" ref="A1:A23"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K18:K21">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($K18=FALSE,$K18&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K17">
+  <conditionalFormatting sqref="K1:K23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
     </cfRule>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5290C0-5180-4F4A-A328-275411C1689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9196EBD8-8D9E-49A9-A230-2F126F11BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,34 @@
   </si>
   <si>
     <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +322,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -612,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C2">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -705,28 +740,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -740,28 +775,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9028</v>
+        <v>9038</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -775,31 +810,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9026</v>
+        <v>9038</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -810,31 +845,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>200000</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -845,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -854,13 +889,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -880,28 +915,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -915,28 +950,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>200</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -950,31 +985,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9010</v>
+        <v>9028</v>
       </c>
       <c r="C10">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -985,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -994,19 +1029,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1020,31 +1055,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9009</v>
+        <v>9016</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1055,31 +1090,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9023</v>
+        <v>9008</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1090,34 +1125,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C14">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1125,22 +1160,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>9017</v>
       </c>
       <c r="C15">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1152,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1160,22 +1195,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>9009</v>
       </c>
       <c r="C16">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1187,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1195,22 +1230,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>9023</v>
       </c>
       <c r="C17">
-        <v>150000</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1230,22 +1265,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>9001</v>
       </c>
       <c r="C18">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1257,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1265,31 +1300,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9001</v>
+        <v>88</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1300,31 +1335,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1335,34 +1370,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1370,31 +1405,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1405,25 +1440,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>9001</v>
       </c>
       <c r="C23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>37</v>
@@ -1432,6 +1467,146 @@
         <v>0</v>
       </c>
       <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>73</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>400</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>1200</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>600</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1442,9 +1617,14 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K23">
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K27">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
+      <formula>AND($K2=FALSE,$K2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9196EBD8-8D9E-49A9-A230-2F126F11BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF6ABD-76F0-4D97-9688-77A3CF0F3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,30 @@
   <si>
     <t>m22</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m29</t>
+  </si>
+  <si>
+    <t>m28</t>
+  </si>
+  <si>
+    <t>m27</t>
+  </si>
+  <si>
+    <t>m26</t>
   </si>
 </sst>
 </file>
@@ -322,14 +346,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -647,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9043</v>
+        <v>9049</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -740,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9044</v>
+        <v>9050</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -749,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -775,22 +792,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9038</v>
+        <v>9048</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -810,22 +827,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9038</v>
+        <v>9048</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>200000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -845,28 +862,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C6">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -880,28 +897,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -915,28 +932,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9028</v>
+        <v>9038</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -950,31 +967,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9026</v>
+        <v>9038</v>
       </c>
       <c r="C9">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -985,31 +1002,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>200000</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1020,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1029,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1055,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H12">
         <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1090,28 +1107,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="C13">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1125,31 +1142,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9010</v>
+        <v>9028</v>
       </c>
       <c r="C14">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1160,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1169,19 +1186,19 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1195,31 +1212,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9009</v>
+        <v>9016</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1230,31 +1247,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9023</v>
+        <v>9008</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1265,34 +1282,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C18">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1300,22 +1317,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>9017</v>
       </c>
       <c r="C19">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1327,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1335,22 +1352,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>9009</v>
       </c>
       <c r="C20">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1362,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1370,22 +1387,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>9023</v>
       </c>
       <c r="C21">
-        <v>150000</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1405,22 +1422,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>9001</v>
       </c>
       <c r="C22">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1432,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1440,31 +1457,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9001</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1475,31 +1492,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1510,34 +1527,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H25">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1545,31 +1562,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1580,25 +1597,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>9001</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>37</v>
@@ -1607,6 +1624,146 @@
         <v>0</v>
       </c>
       <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>400</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1200</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>600</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1617,14 +1774,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="K1:K31">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K27">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($K2=FALSE,$K2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF6ABD-76F0-4D97-9688-77A3CF0F3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C9095-ED26-411E-9827-A2066C51CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,20 @@
   </si>
   <si>
     <t>m26</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m31</t>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m30</t>
   </si>
 </sst>
 </file>
@@ -346,7 +360,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -368,9 +389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,7 +703,7 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,25 +740,26 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9049</v>
+        <v>9062</v>
       </c>
       <c r="C2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -754,10 +776,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9050</v>
+        <v>9063</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -766,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -789,25 +812,26 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C4">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -824,25 +848,26 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9048</v>
+        <v>9050</v>
       </c>
       <c r="C5">
-        <v>200000</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -859,10 +884,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="C6">
         <v>50000</v>
@@ -871,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -894,25 +920,26 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9044</v>
+        <v>9048</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>200000</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -929,25 +956,26 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9038</v>
+        <v>9043</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -964,10 +992,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9038</v>
+        <v>9044</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -976,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -999,31 +1028,32 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9032</v>
+        <v>9038</v>
       </c>
       <c r="C10">
-        <v>200000</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1034,31 +1064,32 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9033</v>
+        <v>9038</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1069,25 +1100,26 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1104,34 +1136,35 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9026</v>
+        <v>9033</v>
       </c>
       <c r="C13">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1139,13 +1172,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
         <v>9028</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1157,16 +1191,16 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1174,34 +1208,35 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1209,34 +1244,35 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1244,34 +1280,35 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9008</v>
+        <v>9027</v>
       </c>
       <c r="C17">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1279,25 +1316,26 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C18">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1314,34 +1352,35 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9017</v>
+        <v>9008</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1349,34 +1388,35 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1384,25 +1424,26 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1419,25 +1460,26 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9001</v>
+        <v>9009</v>
       </c>
       <c r="C22">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1449,30 +1491,31 @@
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>9023</v>
       </c>
       <c r="C23">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1484,15 +1527,16 @@
         <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>9001</v>
       </c>
       <c r="C24">
         <v>30000</v>
@@ -1501,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1524,25 +1568,26 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1554,30 +1599,31 @@
         <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1589,85 +1635,88 @@
         <v>1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9001</v>
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>9001</v>
       </c>
       <c r="C29">
         <v>200</v>
@@ -1676,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1699,28 +1748,29 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>37</v>
@@ -1729,33 +1779,34 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C31">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>37</v>
@@ -1764,19 +1815,96 @@
         <v>0</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>400</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>1200</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K23" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
-      <sortCondition descending="1" ref="A1:A23"/>
+  <autoFilter ref="A1:K25" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
+      <sortCondition descending="1" ref="A1:A25"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K31">
+  <conditionalFormatting sqref="K1 K4:K33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
+      <formula>AND($K2=FALSE,$K2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C9095-ED26-411E-9827-A2066C51CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D46D2D-4BEF-4E58-9C58-6FE3BA46285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,14 @@
   </si>
   <si>
     <t>m30</t>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -360,14 +368,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -688,7 +689,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,32 +741,32 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A3" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9062</v>
+        <v>9065</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -776,32 +777,32 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9063</v>
+        <v>9066</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -812,26 +813,26 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9049</v>
+        <v>9062</v>
       </c>
       <c r="C4">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -848,11 +849,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A33" si="1">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9050</v>
+        <v>9063</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -861,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -884,26 +885,26 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C6">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -920,26 +921,26 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9048</v>
+        <v>9050</v>
       </c>
       <c r="C7">
-        <v>200000</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -956,11 +957,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="C8">
         <v>50000</v>
@@ -969,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -992,26 +993,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9044</v>
+        <v>9048</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>200000</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1028,26 +1029,26 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9038</v>
+        <v>9043</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1064,11 +1065,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9038</v>
+        <v>9044</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1077,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1100,32 +1101,32 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9032</v>
+        <v>9038</v>
       </c>
       <c r="C12">
-        <v>200000</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1136,32 +1137,32 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9033</v>
+        <v>9038</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1172,26 +1173,26 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1208,35 +1209,35 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9026</v>
+        <v>9033</v>
       </c>
       <c r="C15">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1244,14 +1245,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16">
         <v>9028</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1263,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1280,35 +1281,35 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1316,35 +1317,35 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1352,35 +1353,35 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9008</v>
+        <v>9027</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1388,26 +1389,26 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C20">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1424,35 +1425,35 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9017</v>
+        <v>9008</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1460,35 +1461,35 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1496,26 +1497,26 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1532,26 +1533,26 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9001</v>
+        <v>9009</v>
       </c>
       <c r="C24">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1563,31 +1564,31 @@
         <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>9023</v>
       </c>
       <c r="C25">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1599,12 +1600,12 @@
         <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -1640,7 +1641,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -1676,7 +1677,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -1712,7 +1713,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -1748,7 +1749,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -1784,7 +1785,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -1820,7 +1821,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -1856,7 +1857,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -1897,14 +1898,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1 K4:K33">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="K1:K33">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($K2=FALSE,$K2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D46D2D-4BEF-4E58-9C58-6FE3BA46285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CFEC86-D20C-4FBF-9582-1B3182BE73FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
         <v>9066</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -856,7 +856,7 @@
         <v>9063</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>70</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -928,7 +928,7 @@
         <v>9050</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -1015,7 +1015,7 @@
         <v>66</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -1072,7 +1072,7 @@
         <v>9044</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>56</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -1108,7 +1108,7 @@
         <v>9038</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>9038</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -1216,7 +1216,7 @@
         <v>9033</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>49</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>40</v>
@@ -1252,7 +1252,7 @@
         <v>9028</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>9028</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>40</v>
@@ -1360,7 +1360,7 @@
         <v>9027</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>40</v>
@@ -1449,14 +1449,14 @@
       <c r="H21">
         <v>200</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1485,14 +1485,14 @@
       <c r="H22">
         <v>200</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>9017</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>34</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>38</v>
@@ -1557,14 +1557,14 @@
       <c r="H24">
         <v>3</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>38</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1593,14 +1593,14 @@
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>38</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
       <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>38</v>
       </c>
       <c r="J26">
@@ -1665,14 +1665,14 @@
       <c r="H27">
         <v>3</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>38</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1699,9 +1699,9 @@
         <v>18</v>
       </c>
       <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>38</v>
       </c>
       <c r="J28">
@@ -1737,7 +1737,7 @@
       <c r="H29">
         <v>200</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>37</v>
       </c>
       <c r="J29">
@@ -1773,7 +1773,7 @@
       <c r="H30">
         <v>200</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>37</v>
       </c>
       <c r="J30">
@@ -1809,7 +1809,7 @@
       <c r="H31">
         <v>200</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>37</v>
       </c>
       <c r="J31">
@@ -1845,14 +1845,14 @@
       <c r="H32">
         <v>400</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>37</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1898,7 +1898,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K33">
+  <conditionalFormatting sqref="K1:K23 A21:K22 A24:K32 K33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
     </cfRule>
